--- a/excel_files/MSI 2019  - Play-In Día 3 (respuestas).xlsx
+++ b/excel_files/MSI 2019  - Play-In Día 3 (respuestas).xlsx
@@ -10,8 +10,28 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="G20">
+      <text>
+        <t xml:space="preserve">La persona que ha respondido ha actualizado este valor.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H20">
+      <text>
+        <t xml:space="preserve">La persona que ha respondido ha actualizado este valor.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="36">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -113,6 +133,12 @@
   </si>
   <si>
     <t>BSC Raxks</t>
+  </si>
+  <si>
+    <t>Lawliet</t>
+  </si>
+  <si>
+    <t>Raledro (LAN)</t>
   </si>
 </sst>
 </file>
@@ -792,7 +818,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1">
-        <v>43588.2108482176</v>
+        <v>43588.73487664352</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>32</v>
@@ -810,10 +836,10 @@
         <v>15</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>11</v>
@@ -854,7 +880,104 @@
         <v>15</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>43588.9908853125</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>43589.2165049537</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>43589.90741320602</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>